--- a/public/data/working.xlsx
+++ b/public/data/working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devry\CEIS209\Mckinney_CourseProject_CEIS209\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FD6A7C-7E2A-46B4-ACEA-1ED7CEE5A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775A1C9-CCDD-4877-854B-E020164DDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="4780" windowWidth="19420" windowHeight="10420" xr2:uid="{F7B10C41-70EF-4519-8A6C-AFDFA81AC790}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Animadrop</t>
   </si>
   <si>
-    <t>Bring Me To Life (Terminite &amp; The Arcturians Remix)</t>
-  </si>
-  <si>
     <t>Evanescence</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Tristam &amp; Braken</t>
   </si>
   <si>
-    <t xml:space="preserve"> Flight (EXO TERROR Remix) </t>
-  </si>
-  <si>
     <t>Techno</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>Alan Walker (feat. Au/Ra and Tomine Harket)</t>
+  </si>
+  <si>
+    <t>Bring Me To Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flight</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +544,7 @@
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -561,7 +561,7 @@
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -578,15 +578,15 @@
         <v>2020</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -595,84 +595,85 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
       <c r="D8">
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2018</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{FC1DE50E-4F97-4B95-9086-0D30D716418D}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{5BE97892-BE12-42E1-BF48-11240411D349}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2EA23166-1B60-4E33-8C42-AAAF7E9DC6E5}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{3CEB545D-C3E9-4E56-85BC-77126F784C34}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{2A6D58A2-3E10-4B73-80D3-85C942318D97}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9A1DB49B-6A18-497B-95DC-D955F2FC4375}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{D97E0F79-6A28-42C7-B8C6-289C7250BFD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>